--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -681,7 +681,7 @@
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="47" style="1" customWidth="1"/>
     <col min="14" max="14" width="22.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43004</v>
+        <v>43083</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4143,14 +4143,14 @@
       <c r="N121"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N121"/>
+  <autoFilter ref="A1:N121" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -7320,7 +7320,7 @@
       <c r="N107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N107"/>
+  <autoFilter ref="A1:N107" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -664,7 +664,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43083</v>
+        <v>43130</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>

--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -661,10 +661,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>43004</v>
+        <v>43131</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9">
-        <v>43004</v>
+        <v>43131</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>43004</v>
+        <v>43131</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>43004</v>
+        <v>43131</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>43004</v>
+        <v>43131</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>43004</v>
+        <v>43131</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>

--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -664,7 +664,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43131</v>
+        <v>43152</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>

--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="77">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>No_PCI_Real_Estate_Investment/Private_Equity_Firms_Total_Records_Uncertain</t>
+  </si>
+  <si>
+    <t>Tigran Cholakyan - Boston Retail</t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +680,7 @@
     <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.7109375" style="1" customWidth="1"/>
@@ -739,7 +742,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43152</v>
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -763,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>6000000</v>
+        <v>200000001</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>
@@ -874,7 +878,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>43131</v>
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -889,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>6</v>
@@ -4151,12 +4156,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4231,7 +4236,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4275,7 +4281,8 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>43004</v>
+        <f t="shared" ref="C3:C26" ca="1" si="0">TODAY()</f>
+        <v>43223</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -4319,7 +4326,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -4363,7 +4371,8 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -4407,7 +4416,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -4451,7 +4461,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4495,7 +4506,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4539,7 +4551,8 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -4583,7 +4596,8 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -4627,7 +4641,8 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4671,7 +4686,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -4715,7 +4731,8 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -4759,7 +4776,8 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -4803,7 +4821,8 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -4847,7 +4866,8 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -4891,7 +4911,8 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -4935,7 +4956,8 @@
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -4979,7 +5001,8 @@
         <v>1</v>
       </c>
       <c r="C19" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -5023,7 +5046,8 @@
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -5067,7 +5091,8 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -5111,7 +5136,8 @@
         <v>1</v>
       </c>
       <c r="C22" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -5155,7 +5181,8 @@
         <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -5199,7 +5226,8 @@
         <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -5243,7 +5271,8 @@
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -5287,7 +5316,8 @@
         <v>1</v>
       </c>
       <c r="C26" s="6">
-        <v>43004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43223</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -5331,7 +5361,8 @@
         <v>2</v>
       </c>
       <c r="C27" s="9">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
@@ -5375,7 +5406,8 @@
         <v>2</v>
       </c>
       <c r="C28" s="9">
-        <v>43004</v>
+        <f t="shared" ref="C28:C51" ca="1" si="1">TODAY()</f>
+        <v>43223</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -5419,7 +5451,8 @@
         <v>2</v>
       </c>
       <c r="C29" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -5463,7 +5496,8 @@
         <v>2</v>
       </c>
       <c r="C30" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -5507,7 +5541,8 @@
         <v>2</v>
       </c>
       <c r="C31" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
@@ -5551,7 +5586,8 @@
         <v>2</v>
       </c>
       <c r="C32" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
@@ -5595,7 +5631,8 @@
         <v>2</v>
       </c>
       <c r="C33" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -5639,7 +5676,8 @@
         <v>2</v>
       </c>
       <c r="C34" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
@@ -5683,7 +5721,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -5727,7 +5766,8 @@
         <v>2</v>
       </c>
       <c r="C36" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -5771,7 +5811,8 @@
         <v>2</v>
       </c>
       <c r="C37" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D37" s="8">
         <v>0</v>
@@ -5815,7 +5856,8 @@
         <v>2</v>
       </c>
       <c r="C38" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
@@ -5859,7 +5901,8 @@
         <v>2</v>
       </c>
       <c r="C39" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D39" s="8">
         <v>0</v>
@@ -5903,7 +5946,8 @@
         <v>2</v>
       </c>
       <c r="C40" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
@@ -5947,7 +5991,8 @@
         <v>2</v>
       </c>
       <c r="C41" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
@@ -5991,7 +6036,8 @@
         <v>2</v>
       </c>
       <c r="C42" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -6035,7 +6081,8 @@
         <v>2</v>
       </c>
       <c r="C43" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -6079,7 +6126,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
@@ -6123,7 +6171,8 @@
         <v>2</v>
       </c>
       <c r="C45" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
@@ -6167,7 +6216,8 @@
         <v>2</v>
       </c>
       <c r="C46" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
@@ -6211,7 +6261,8 @@
         <v>2</v>
       </c>
       <c r="C47" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D47" s="8">
         <v>0</v>
@@ -6255,7 +6306,8 @@
         <v>2</v>
       </c>
       <c r="C48" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
@@ -6299,7 +6351,8 @@
         <v>2</v>
       </c>
       <c r="C49" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -6343,7 +6396,8 @@
         <v>2</v>
       </c>
       <c r="C50" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
@@ -6387,7 +6441,8 @@
         <v>2</v>
       </c>
       <c r="C51" s="9">
-        <v>43004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43223</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
@@ -6423,901 +6478,6755 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-    </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-    </row>
-    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-    </row>
-    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-    </row>
-    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-    </row>
-    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-    </row>
-    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-    </row>
-    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-    </row>
-    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-    </row>
-    <row r="77" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-    </row>
-    <row r="78" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-    </row>
-    <row r="79" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-    </row>
-    <row r="80" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-    </row>
-    <row r="81" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-    </row>
-    <row r="82" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-    </row>
-    <row r="83" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-    </row>
-    <row r="84" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-    </row>
-    <row r="85" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-    </row>
-    <row r="86" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-    </row>
-    <row r="88" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-    </row>
-    <row r="89" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-    </row>
-    <row r="90" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-    </row>
-    <row r="91" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-    </row>
-    <row r="92" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-    </row>
-    <row r="94" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-    </row>
-    <row r="95" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-    </row>
-    <row r="96" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-    </row>
-    <row r="97" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-    </row>
-    <row r="98" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-    </row>
-    <row r="99" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-    </row>
-    <row r="100" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-    </row>
-    <row r="101" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-    </row>
-    <row r="102" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-    </row>
-    <row r="103" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
-    </row>
-    <row r="104" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-    </row>
-    <row r="105" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-    </row>
-    <row r="106" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-    </row>
-    <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" ref="C53:C76" ca="1" si="2">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>43223</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="8">
+        <v>2</v>
+      </c>
+      <c r="C77" s="9">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="8">
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="8">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9">
+        <f t="shared" ref="C78:C101" ca="1" si="3">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="8">
+        <v>0</v>
+      </c>
+      <c r="N78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="8">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0</v>
+      </c>
+      <c r="N79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="8">
+        <v>2</v>
+      </c>
+      <c r="C80" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="8">
+        <v>0</v>
+      </c>
+      <c r="N80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="8">
+        <v>2</v>
+      </c>
+      <c r="C81" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" s="8">
+        <v>0</v>
+      </c>
+      <c r="N81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="8">
+        <v>0</v>
+      </c>
+      <c r="N82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="C83" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" s="8">
+        <v>0</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="8">
+        <v>2</v>
+      </c>
+      <c r="C84" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="8">
+        <v>2</v>
+      </c>
+      <c r="C85" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="8">
+        <v>0</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="8">
+        <v>0</v>
+      </c>
+      <c r="N86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="8">
+        <v>2</v>
+      </c>
+      <c r="C87" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" s="8">
+        <v>0</v>
+      </c>
+      <c r="N87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="8">
+        <v>2</v>
+      </c>
+      <c r="C88" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="8">
+        <v>0</v>
+      </c>
+      <c r="N88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="8">
+        <v>2</v>
+      </c>
+      <c r="C89" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" s="8">
+        <v>0</v>
+      </c>
+      <c r="N89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="8">
+        <v>2</v>
+      </c>
+      <c r="C90" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="8">
+        <v>0</v>
+      </c>
+      <c r="N90" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="8">
+        <v>2</v>
+      </c>
+      <c r="C91" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" s="8">
+        <v>0</v>
+      </c>
+      <c r="N91" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="8">
+        <v>2</v>
+      </c>
+      <c r="C92" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" s="8">
+        <v>0</v>
+      </c>
+      <c r="N92" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="8">
+        <v>2</v>
+      </c>
+      <c r="C93" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D93" s="8">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K93" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" s="8">
+        <v>0</v>
+      </c>
+      <c r="N93" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="8">
+        <v>2</v>
+      </c>
+      <c r="C94" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="8">
+        <v>0</v>
+      </c>
+      <c r="N94" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2</v>
+      </c>
+      <c r="C95" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" s="8">
+        <v>0</v>
+      </c>
+      <c r="N95" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="8">
+        <v>2</v>
+      </c>
+      <c r="C96" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M96" s="8">
+        <v>0</v>
+      </c>
+      <c r="N96" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="8">
+        <v>2</v>
+      </c>
+      <c r="C97" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K97" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" s="8">
+        <v>0</v>
+      </c>
+      <c r="N97" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="8">
+        <v>2</v>
+      </c>
+      <c r="C98" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" s="8">
+        <v>0</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="8">
+        <v>2</v>
+      </c>
+      <c r="C99" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" s="8">
+        <v>0</v>
+      </c>
+      <c r="N99" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="8">
+        <v>2</v>
+      </c>
+      <c r="C100" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K100" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="8">
+        <v>0</v>
+      </c>
+      <c r="N100" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="8">
+        <v>2</v>
+      </c>
+      <c r="C101" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>43223</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K101" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="8">
+        <v>0</v>
+      </c>
+      <c r="N101" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K102" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" ref="C103:C126" ca="1" si="4">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K104" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K108" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K109" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K110" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K111" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K112" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K113" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K114" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K115" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M115" s="4">
+        <v>0</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K116" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
+      <c r="N116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K118" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K119" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1</v>
+      </c>
+      <c r="C120" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K120" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K121" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
+      <c r="N121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K122" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
+      <c r="N122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1</v>
+      </c>
+      <c r="C123" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K123" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
+      <c r="N123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K124" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K125" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
+      <c r="N125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>43223</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K126" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" s="8">
+        <v>2</v>
+      </c>
+      <c r="C127" s="9">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D127" s="8">
+        <v>0</v>
+      </c>
+      <c r="E127" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K127" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" s="8">
+        <v>0</v>
+      </c>
+      <c r="N127" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="8">
+        <v>2</v>
+      </c>
+      <c r="C128" s="9">
+        <f t="shared" ref="C128:C151" ca="1" si="5">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0</v>
+      </c>
+      <c r="E128" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" s="8">
+        <v>0</v>
+      </c>
+      <c r="N128" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="8">
+        <v>2</v>
+      </c>
+      <c r="C129" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0</v>
+      </c>
+      <c r="E129" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K129" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M129" s="8">
+        <v>0</v>
+      </c>
+      <c r="N129" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" s="8">
+        <v>2</v>
+      </c>
+      <c r="C130" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0</v>
+      </c>
+      <c r="E130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K130" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M130" s="8">
+        <v>0</v>
+      </c>
+      <c r="N130" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="8">
+        <v>2</v>
+      </c>
+      <c r="C131" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0</v>
+      </c>
+      <c r="E131" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K131" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="8">
+        <v>0</v>
+      </c>
+      <c r="N131" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="8">
+        <v>2</v>
+      </c>
+      <c r="C132" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0</v>
+      </c>
+      <c r="E132" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K132" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M132" s="8">
+        <v>0</v>
+      </c>
+      <c r="N132" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="8">
+        <v>2</v>
+      </c>
+      <c r="C133" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0</v>
+      </c>
+      <c r="E133" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K133" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M133" s="8">
+        <v>0</v>
+      </c>
+      <c r="N133" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="8">
+        <v>2</v>
+      </c>
+      <c r="C134" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D134" s="8">
+        <v>0</v>
+      </c>
+      <c r="E134" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K134" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M134" s="8">
+        <v>0</v>
+      </c>
+      <c r="N134" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" s="8">
+        <v>2</v>
+      </c>
+      <c r="C135" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0</v>
+      </c>
+      <c r="E135" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K135" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M135" s="8">
+        <v>0</v>
+      </c>
+      <c r="N135" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="8">
+        <v>2</v>
+      </c>
+      <c r="C136" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0</v>
+      </c>
+      <c r="E136" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K136" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M136" s="8">
+        <v>0</v>
+      </c>
+      <c r="N136" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="8">
+        <v>2</v>
+      </c>
+      <c r="C137" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0</v>
+      </c>
+      <c r="E137" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K137" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M137" s="8">
+        <v>0</v>
+      </c>
+      <c r="N137" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="8">
+        <v>2</v>
+      </c>
+      <c r="C138" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0</v>
+      </c>
+      <c r="E138" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K138" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M138" s="8">
+        <v>0</v>
+      </c>
+      <c r="N138" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2</v>
+      </c>
+      <c r="C139" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0</v>
+      </c>
+      <c r="E139" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K139" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M139" s="8">
+        <v>0</v>
+      </c>
+      <c r="N139" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2</v>
+      </c>
+      <c r="C140" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0</v>
+      </c>
+      <c r="E140" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K140" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M140" s="8">
+        <v>0</v>
+      </c>
+      <c r="N140" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2</v>
+      </c>
+      <c r="C141" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0</v>
+      </c>
+      <c r="E141" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K141" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M141" s="8">
+        <v>0</v>
+      </c>
+      <c r="N141" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" s="8">
+        <v>2</v>
+      </c>
+      <c r="C142" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0</v>
+      </c>
+      <c r="E142" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K142" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M142" s="8">
+        <v>0</v>
+      </c>
+      <c r="N142" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="8">
+        <v>2</v>
+      </c>
+      <c r="C143" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0</v>
+      </c>
+      <c r="E143" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K143" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M143" s="8">
+        <v>0</v>
+      </c>
+      <c r="N143" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2</v>
+      </c>
+      <c r="C144" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D144" s="8">
+        <v>0</v>
+      </c>
+      <c r="E144" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K144" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M144" s="8">
+        <v>0</v>
+      </c>
+      <c r="N144" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" s="8">
+        <v>2</v>
+      </c>
+      <c r="C145" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0</v>
+      </c>
+      <c r="E145" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K145" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M145" s="8">
+        <v>0</v>
+      </c>
+      <c r="N145" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2</v>
+      </c>
+      <c r="C146" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0</v>
+      </c>
+      <c r="E146" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K146" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="8">
+        <v>0</v>
+      </c>
+      <c r="N146" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B147" s="8">
+        <v>2</v>
+      </c>
+      <c r="C147" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0</v>
+      </c>
+      <c r="E147" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K147" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M147" s="8">
+        <v>0</v>
+      </c>
+      <c r="N147" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148" s="8">
+        <v>2</v>
+      </c>
+      <c r="C148" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0</v>
+      </c>
+      <c r="E148" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K148" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M148" s="8">
+        <v>0</v>
+      </c>
+      <c r="N148" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" s="8">
+        <v>2</v>
+      </c>
+      <c r="C149" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0</v>
+      </c>
+      <c r="E149" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K149" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M149" s="8">
+        <v>0</v>
+      </c>
+      <c r="N149" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="8">
+        <v>2</v>
+      </c>
+      <c r="C150" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D150" s="8">
+        <v>0</v>
+      </c>
+      <c r="E150" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K150" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M150" s="8">
+        <v>0</v>
+      </c>
+      <c r="N150" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B151" s="8">
+        <v>2</v>
+      </c>
+      <c r="C151" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>43223</v>
+      </c>
+      <c r="D151" s="8">
+        <v>0</v>
+      </c>
+      <c r="E151" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K151" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="8">
+        <v>0</v>
+      </c>
+      <c r="N151" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1</v>
+      </c>
+      <c r="C152" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K152" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0</v>
+      </c>
+      <c r="N152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1</v>
+      </c>
+      <c r="C153" s="6">
+        <f t="shared" ref="C153:C176" ca="1" si="6">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0</v>
+      </c>
+      <c r="E153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K153" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1</v>
+      </c>
+      <c r="C154" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K154" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0</v>
+      </c>
+      <c r="N154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1</v>
+      </c>
+      <c r="C155" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K155" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1</v>
+      </c>
+      <c r="C156" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K156" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1</v>
+      </c>
+      <c r="C157" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K157" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1</v>
+      </c>
+      <c r="C158" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K158" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0</v>
+      </c>
+      <c r="N158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1</v>
+      </c>
+      <c r="C159" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K159" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0</v>
+      </c>
+      <c r="N159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" s="4">
+        <v>1</v>
+      </c>
+      <c r="C160" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K160" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0</v>
+      </c>
+      <c r="N160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1</v>
+      </c>
+      <c r="C161" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K161" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M161" s="4">
+        <v>0</v>
+      </c>
+      <c r="N161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1</v>
+      </c>
+      <c r="C162" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K162" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M162" s="4">
+        <v>0</v>
+      </c>
+      <c r="N162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+      <c r="C163" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K163" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0</v>
+      </c>
+      <c r="N163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1</v>
+      </c>
+      <c r="C164" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K164" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0</v>
+      </c>
+      <c r="N164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1</v>
+      </c>
+      <c r="C165" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K165" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0</v>
+      </c>
+      <c r="N165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1</v>
+      </c>
+      <c r="C166" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+      <c r="E166" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K166" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0</v>
+      </c>
+      <c r="N166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+      <c r="C167" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K167" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M167" s="4">
+        <v>0</v>
+      </c>
+      <c r="N167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1</v>
+      </c>
+      <c r="C168" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K168" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M168" s="4">
+        <v>0</v>
+      </c>
+      <c r="N168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1</v>
+      </c>
+      <c r="C169" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K169" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M169" s="4">
+        <v>0</v>
+      </c>
+      <c r="N169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1</v>
+      </c>
+      <c r="C170" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K170" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M170" s="4">
+        <v>0</v>
+      </c>
+      <c r="N170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K171" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0</v>
+      </c>
+      <c r="N171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" s="4">
+        <v>1</v>
+      </c>
+      <c r="C172" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D172" s="4">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K172" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0</v>
+      </c>
+      <c r="N172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1</v>
+      </c>
+      <c r="C173" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0</v>
+      </c>
+      <c r="E173" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K173" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M173" s="4">
+        <v>0</v>
+      </c>
+      <c r="N173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" s="4">
+        <v>1</v>
+      </c>
+      <c r="C174" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K174" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M174" s="4">
+        <v>0</v>
+      </c>
+      <c r="N174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" s="4">
+        <v>1</v>
+      </c>
+      <c r="C175" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D175" s="4">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K175" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M175" s="4">
+        <v>0</v>
+      </c>
+      <c r="N175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176" s="4">
+        <v>1</v>
+      </c>
+      <c r="C176" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>43223</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K176" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0</v>
+      </c>
+      <c r="N176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B177" s="8">
+        <v>2</v>
+      </c>
+      <c r="C177" s="9">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D177" s="8">
+        <v>0</v>
+      </c>
+      <c r="E177" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K177" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L177" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M177" s="8">
+        <v>0</v>
+      </c>
+      <c r="N177" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="8">
+        <v>2</v>
+      </c>
+      <c r="C178" s="9">
+        <f t="shared" ref="C178:C201" ca="1" si="7">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="D178" s="8">
+        <v>0</v>
+      </c>
+      <c r="E178" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K178" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L178" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M178" s="8">
+        <v>0</v>
+      </c>
+      <c r="N178" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B179" s="8">
+        <v>2</v>
+      </c>
+      <c r="C179" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D179" s="8">
+        <v>0</v>
+      </c>
+      <c r="E179" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K179" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M179" s="8">
+        <v>0</v>
+      </c>
+      <c r="N179" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" s="8">
+        <v>2</v>
+      </c>
+      <c r="C180" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D180" s="8">
+        <v>0</v>
+      </c>
+      <c r="E180" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K180" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L180" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M180" s="8">
+        <v>0</v>
+      </c>
+      <c r="N180" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="8">
+        <v>2</v>
+      </c>
+      <c r="C181" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D181" s="8">
+        <v>0</v>
+      </c>
+      <c r="E181" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K181" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M181" s="8">
+        <v>0</v>
+      </c>
+      <c r="N181" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="8">
+        <v>2</v>
+      </c>
+      <c r="C182" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D182" s="8">
+        <v>0</v>
+      </c>
+      <c r="E182" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G182" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K182" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L182" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M182" s="8">
+        <v>0</v>
+      </c>
+      <c r="N182" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="8">
+        <v>2</v>
+      </c>
+      <c r="C183" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D183" s="8">
+        <v>0</v>
+      </c>
+      <c r="E183" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J183" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K183" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M183" s="8">
+        <v>0</v>
+      </c>
+      <c r="N183" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184" s="8">
+        <v>2</v>
+      </c>
+      <c r="C184" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D184" s="8">
+        <v>0</v>
+      </c>
+      <c r="E184" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K184" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L184" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M184" s="8">
+        <v>0</v>
+      </c>
+      <c r="N184" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" s="8">
+        <v>2</v>
+      </c>
+      <c r="C185" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D185" s="8">
+        <v>0</v>
+      </c>
+      <c r="E185" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G185" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K185" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M185" s="8">
+        <v>0</v>
+      </c>
+      <c r="N185" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B186" s="8">
+        <v>2</v>
+      </c>
+      <c r="C186" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D186" s="8">
+        <v>0</v>
+      </c>
+      <c r="E186" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K186" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L186" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M186" s="8">
+        <v>0</v>
+      </c>
+      <c r="N186" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" s="8">
+        <v>2</v>
+      </c>
+      <c r="C187" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D187" s="8">
+        <v>0</v>
+      </c>
+      <c r="E187" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K187" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M187" s="8">
+        <v>0</v>
+      </c>
+      <c r="N187" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188" s="8">
+        <v>2</v>
+      </c>
+      <c r="C188" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D188" s="8">
+        <v>0</v>
+      </c>
+      <c r="E188" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G188" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K188" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L188" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M188" s="8">
+        <v>0</v>
+      </c>
+      <c r="N188" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" s="8">
+        <v>2</v>
+      </c>
+      <c r="C189" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D189" s="8">
+        <v>0</v>
+      </c>
+      <c r="E189" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J189" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K189" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M189" s="8">
+        <v>0</v>
+      </c>
+      <c r="N189" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190" s="8">
+        <v>2</v>
+      </c>
+      <c r="C190" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D190" s="8">
+        <v>0</v>
+      </c>
+      <c r="E190" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G190" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K190" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M190" s="8">
+        <v>0</v>
+      </c>
+      <c r="N190" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B191" s="8">
+        <v>2</v>
+      </c>
+      <c r="C191" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D191" s="8">
+        <v>0</v>
+      </c>
+      <c r="E191" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J191" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K191" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M191" s="8">
+        <v>0</v>
+      </c>
+      <c r="N191" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="8">
+        <v>2</v>
+      </c>
+      <c r="C192" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D192" s="8">
+        <v>0</v>
+      </c>
+      <c r="E192" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G192" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K192" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L192" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M192" s="8">
+        <v>0</v>
+      </c>
+      <c r="N192" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B193" s="8">
+        <v>2</v>
+      </c>
+      <c r="C193" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D193" s="8">
+        <v>0</v>
+      </c>
+      <c r="E193" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G193" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K193" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M193" s="8">
+        <v>0</v>
+      </c>
+      <c r="N193" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B194" s="8">
+        <v>2</v>
+      </c>
+      <c r="C194" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D194" s="8">
+        <v>0</v>
+      </c>
+      <c r="E194" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K194" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M194" s="8">
+        <v>0</v>
+      </c>
+      <c r="N194" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B195" s="8">
+        <v>2</v>
+      </c>
+      <c r="C195" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D195" s="8">
+        <v>0</v>
+      </c>
+      <c r="E195" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K195" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M195" s="8">
+        <v>0</v>
+      </c>
+      <c r="N195" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" s="8">
+        <v>2</v>
+      </c>
+      <c r="C196" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D196" s="8">
+        <v>0</v>
+      </c>
+      <c r="E196" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G196" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K196" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M196" s="8">
+        <v>0</v>
+      </c>
+      <c r="N196" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197" s="8">
+        <v>2</v>
+      </c>
+      <c r="C197" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D197" s="8">
+        <v>0</v>
+      </c>
+      <c r="E197" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F197" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G197" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J197" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K197" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M197" s="8">
+        <v>0</v>
+      </c>
+      <c r="N197" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B198" s="8">
+        <v>2</v>
+      </c>
+      <c r="C198" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D198" s="8">
+        <v>0</v>
+      </c>
+      <c r="E198" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F198" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G198" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K198" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L198" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M198" s="8">
+        <v>0</v>
+      </c>
+      <c r="N198" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B199" s="8">
+        <v>2</v>
+      </c>
+      <c r="C199" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D199" s="8">
+        <v>0</v>
+      </c>
+      <c r="E199" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F199" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G199" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J199" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K199" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M199" s="8">
+        <v>0</v>
+      </c>
+      <c r="N199" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" s="8">
+        <v>2</v>
+      </c>
+      <c r="C200" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D200" s="8">
+        <v>0</v>
+      </c>
+      <c r="E200" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F200" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G200" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J200" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K200" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L200" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M200" s="8">
+        <v>0</v>
+      </c>
+      <c r="N200" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" s="8">
+        <v>2</v>
+      </c>
+      <c r="C201" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>43223</v>
+      </c>
+      <c r="D201" s="8">
+        <v>0</v>
+      </c>
+      <c r="E201" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G201" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K201" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M201" s="8">
+        <v>0</v>
+      </c>
+      <c r="N201" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N107" xr:uid="{00000000-0009-0000-0000-000001000000}"/>

--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -13,11 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Regression" sheetId="6" r:id="rId2"/>
+    <sheet name="PCI_Regression" sheetId="6" r:id="rId2"/>
+    <sheet name="No_PCI_Regression" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$J$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$J$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">No_PCI_Regression!$A$1:$J$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCI_Regression!$A$1:$J$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$J$120</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="76">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -245,9 +247,6 @@
     <t>No_PCI_Real_Estate_Investment/Private_Equity_Firms_Total_Records_Uncertain</t>
   </si>
   <si>
-    <t>Tigran Cholakyan - Boston Retail</t>
-  </si>
-  <si>
     <t>select_NetGuard_Plus_with_BrandGuard_and_PCI_250K_limit_2_pt_5K_Deduct</t>
   </si>
   <si>
@@ -258,9 +257,6 @@
   </si>
   <si>
     <t>Deductible</t>
-  </si>
-  <si>
-    <t>Janice Quinn</t>
   </si>
   <si>
     <t>select_NGP_with_BrandGuard_No_PCI_1MM_limit_2pt5K_Deduct</t>
@@ -672,12 +668,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,10 +721,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -740,13 +736,13 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43322</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
@@ -758,102 +754,136 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="K2" s="11">
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43131</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
-        <v>43131</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>43131</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43322</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43313</v>
+        <v>43131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -862,7 +892,7 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -876,7 +906,7 @@
     </row>
     <row r="7" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -885,7 +915,7 @@
         <v>43131</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
@@ -909,9 +939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -920,7 +950,7 @@
         <v>43131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -946,13 +976,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>43131</v>
+        <v>43004</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -967,7 +997,7 @@
         <v>1000000</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -981,7 +1011,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1002,7 +1032,7 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -1016,7 +1046,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1037,7 +1067,7 @@
         <v>1000000</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1051,7 +1081,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1072,7 +1102,7 @@
         <v>1000000</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -1086,7 +1116,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1107,7 +1137,7 @@
         <v>1000000</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -1119,9 +1149,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -1130,7 +1160,7 @@
         <v>43004</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1142,7 +1172,7 @@
         <v>1000000</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -1156,7 +1186,7 @@
     </row>
     <row r="15" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -1177,7 +1207,7 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -1191,7 +1221,7 @@
     </row>
     <row r="16" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1212,7 +1242,7 @@
         <v>1000000</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -1226,7 +1256,7 @@
     </row>
     <row r="17" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -1247,7 +1277,7 @@
         <v>1000000</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -1261,7 +1291,7 @@
     </row>
     <row r="18" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1282,7 +1312,7 @@
         <v>1000000</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -1294,9 +1324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -1305,7 +1335,7 @@
         <v>43004</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
@@ -1317,7 +1347,7 @@
         <v>1000000</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -1331,7 +1361,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -1352,7 +1382,7 @@
         <v>1000000</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -1366,7 +1396,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -1387,7 +1417,7 @@
         <v>1000000</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1401,7 +1431,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -1422,7 +1452,7 @@
         <v>1000000</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -1436,7 +1466,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -1457,7 +1487,7 @@
         <v>1000000</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -1469,9 +1499,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1480,7 +1510,7 @@
         <v>43004</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1492,7 +1522,7 @@
         <v>1000000</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -1506,7 +1536,7 @@
     </row>
     <row r="25" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1527,7 +1557,7 @@
         <v>1000000</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -1541,7 +1571,7 @@
     </row>
     <row r="26" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -1562,7 +1592,7 @@
         <v>1000000</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -1576,7 +1606,7 @@
     </row>
     <row r="27" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -1597,7 +1627,7 @@
         <v>1000000</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -1611,7 +1641,7 @@
     </row>
     <row r="28" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -1632,7 +1662,7 @@
         <v>1000000</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -1644,9 +1674,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -1655,7 +1685,7 @@
         <v>43004</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
@@ -1667,7 +1697,7 @@
         <v>1000000</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -1679,9 +1709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -1702,7 +1732,7 @@
         <v>1000000</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -1714,9 +1744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -1737,7 +1767,7 @@
         <v>1000000</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -1751,7 +1781,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -1772,7 +1802,7 @@
         <v>1000000</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -1786,7 +1816,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -1807,7 +1837,7 @@
         <v>1000000</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -1820,43 +1850,43 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="A34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9">
         <v>43004</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
@@ -1877,7 +1907,7 @@
         <v>1000000</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
@@ -1891,7 +1921,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
@@ -1912,7 +1942,7 @@
         <v>1000000</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" s="8">
         <v>0</v>
@@ -1926,7 +1956,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8">
         <v>2</v>
@@ -1947,7 +1977,7 @@
         <v>1000000</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" s="8">
         <v>0</v>
@@ -1961,7 +1991,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="8">
         <v>2</v>
@@ -1982,7 +2012,7 @@
         <v>1000000</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" s="8">
         <v>0</v>
@@ -1996,7 +2026,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8">
         <v>2</v>
@@ -2005,7 +2035,7 @@
         <v>43004</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>4</v>
@@ -2017,7 +2047,7 @@
         <v>1000000</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8">
         <v>0</v>
@@ -2031,7 +2061,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="8">
         <v>2</v>
@@ -2052,7 +2082,7 @@
         <v>1000000</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
@@ -2066,7 +2096,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="8">
         <v>2</v>
@@ -2087,7 +2117,7 @@
         <v>1000000</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="8">
         <v>0</v>
@@ -2101,7 +2131,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="8">
         <v>2</v>
@@ -2122,7 +2152,7 @@
         <v>1000000</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I42" s="8">
         <v>0</v>
@@ -2136,7 +2166,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="8">
         <v>2</v>
@@ -2157,7 +2187,7 @@
         <v>1000000</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8">
         <v>0</v>
@@ -2171,7 +2201,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -2180,7 +2210,7 @@
         <v>43004</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>4</v>
@@ -2192,7 +2222,7 @@
         <v>1000000</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
@@ -2206,7 +2236,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
@@ -2227,7 +2257,7 @@
         <v>1000000</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8">
         <v>0</v>
@@ -2241,7 +2271,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
@@ -2262,7 +2292,7 @@
         <v>1000000</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" s="8">
         <v>0</v>
@@ -2276,7 +2306,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
@@ -2297,7 +2327,7 @@
         <v>1000000</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
@@ -2311,7 +2341,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8">
         <v>2</v>
@@ -2332,7 +2362,7 @@
         <v>1000000</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8">
         <v>0</v>
@@ -2346,7 +2376,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
@@ -2355,7 +2385,7 @@
         <v>43004</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>4</v>
@@ -2367,7 +2397,7 @@
         <v>1000000</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I49" s="8">
         <v>0</v>
@@ -2381,7 +2411,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="8">
         <v>2</v>
@@ -2402,7 +2432,7 @@
         <v>1000000</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" s="8">
         <v>0</v>
@@ -2416,7 +2446,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="8">
         <v>2</v>
@@ -2437,7 +2467,7 @@
         <v>1000000</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" s="8">
         <v>0</v>
@@ -2451,7 +2481,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="8">
         <v>2</v>
@@ -2472,7 +2502,7 @@
         <v>1000000</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I52" s="8">
         <v>0</v>
@@ -2486,7 +2516,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="8">
         <v>2</v>
@@ -2507,7 +2537,7 @@
         <v>1000000</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
@@ -2521,7 +2551,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8">
         <v>2</v>
@@ -2530,7 +2560,7 @@
         <v>43004</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>4</v>
@@ -2542,7 +2572,7 @@
         <v>1000000</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
@@ -2556,7 +2586,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="8">
         <v>2</v>
@@ -2577,7 +2607,7 @@
         <v>1000000</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I55" s="8">
         <v>0</v>
@@ -2591,7 +2621,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="8">
         <v>2</v>
@@ -2612,7 +2642,7 @@
         <v>1000000</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I56" s="8">
         <v>0</v>
@@ -2626,7 +2656,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8">
         <v>2</v>
@@ -2647,7 +2677,7 @@
         <v>1000000</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" s="8">
         <v>0</v>
@@ -2661,7 +2691,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="8">
         <v>2</v>
@@ -2682,7 +2712,7 @@
         <v>1000000</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I58" s="8">
         <v>0</v>
@@ -2694,40 +2724,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="8">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9">
-        <v>43004</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A60"/>
@@ -3389,20 +3396,8 @@
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J121" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3411,12 +3406,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62E7889-0E31-43DD-B619-4A82799F961B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3464,624 +3459,241 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>43131</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2" ca="1" si="0">TODAY()</f>
+        <v>43322</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C18" ca="1" si="0">TODAY()</f>
-        <v>43313</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="K2" s="11">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4093,7 +3705,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4105,7 +3717,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4117,7 +3729,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4129,7 +3741,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -4141,7 +3753,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -4153,7 +3765,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -4165,7 +3777,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -4177,7 +3789,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -4189,7 +3801,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -4201,7 +3813,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -4213,7 +3825,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -4225,7 +3837,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -4237,7 +3849,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -4561,200 +4173,783 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63108D96-7509-4B86-85B3-63A855C6FB3D}">
+  <dimension ref="A1:K58"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="78.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43131</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/NGP.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="76">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>select_NGP_with_BrandGuard_No_PCI_1MM_limit_2pt5K_Deduct</t>
-  </si>
-  <si>
-    <t>Music Festival</t>
   </si>
 </sst>
 </file>
@@ -739,7 +736,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -845,7 +842,7 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -2736,7 +2733,7 @@
       </c>
       <c r="C59" s="6">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>12</v>
@@ -2842,7 +2839,7 @@
       </c>
       <c r="C62" s="6">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>12</v>
@@ -4733,7 +4730,7 @@
       </c>
       <c r="C116" s="6">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>12</v>
@@ -4839,7 +4836,7 @@
       </c>
       <c r="C119" s="6">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>12</v>
@@ -6733,10 +6730,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6799,7 +6796,7 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2" ca="1" si="0">TODAY()</f>
-        <v>43368</v>
+        <v>43384</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -7509,10 +7506,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63108D96-7509-4B86-85B3-63A855C6FB3D}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7577,7 +7574,7 @@
         <v>43131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
